--- a/database.xlsx
+++ b/database.xlsx
@@ -55,9 +55,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -360,15 +361,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col width="16.21875" customWidth="1" min="1" max="1"/>
-    <col width="17.5546875" customWidth="1" min="2" max="3"/>
-    <col width="13.21875" customWidth="1" min="4" max="4"/>
-    <col width="13" customWidth="1" min="5" max="5"/>
+    <col width="16.21875" customWidth="1" style="2" min="1" max="1"/>
+    <col width="17.5546875" customWidth="1" style="2" min="2" max="3"/>
+    <col width="13.21875" customWidth="1" style="2" min="4" max="4"/>
+    <col width="13" customWidth="1" style="2" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="1" s="1">
@@ -408,7 +409,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9487519241</v>
+        <v>9444050672</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
